--- a/components.xlsx
+++ b/components.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>Supplier</t>
   </si>
@@ -94,13 +93,19 @@
   </si>
   <si>
     <t>MCP1825ST-3302E/DB</t>
+  </si>
+  <si>
+    <t>1 Pin Binding Post M2.5 Through Hole</t>
+  </si>
+  <si>
+    <t>36-8730-ND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +128,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF444444"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="3">
@@ -166,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -174,6 +184,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -607,6 +624,32 @@
         <v>20</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="4">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
